--- a/data_year/zb/能源/能源消费总量.xlsx
+++ b/data_year/zb/能源/能源消费总量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,1012 +508,602 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.3</v>
+        <v>9.4</v>
       </c>
       <c r="C2" t="n">
-        <v>21232.01</v>
+        <v>42874.5506082259</v>
       </c>
       <c r="D2" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>245.03</v>
+        <v>1080.24421028655</v>
       </c>
       <c r="F2" t="n">
-        <v>6806.23</v>
+        <v>14698.998575868</v>
       </c>
       <c r="G2" t="n">
-        <v>3504.56</v>
+        <v>6956.20263471637</v>
       </c>
       <c r="H2" t="n">
-        <v>10841</v>
+        <v>38702.792898961</v>
       </c>
       <c r="I2" t="n">
-        <v>871.61</v>
+        <v>1765.1739590702</v>
       </c>
       <c r="J2" t="n">
-        <v>68.5</v>
+        <v>69.2</v>
       </c>
       <c r="K2" t="n">
-        <v>135690</v>
+        <v>349008.259522772</v>
       </c>
       <c r="L2" t="n">
-        <v>3872.75</v>
+        <v>3758.0156614297</v>
       </c>
       <c r="M2" t="n">
-        <v>13472.38</v>
+        <v>41934.4881309571</v>
       </c>
       <c r="N2" t="n">
-        <v>22</v>
+        <v>17.4</v>
       </c>
       <c r="O2" t="n">
-        <v>146964</v>
+        <v>360647.864667577</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>8.4</v>
       </c>
       <c r="C3" t="n">
-        <v>21342.74</v>
+        <v>43965.840608226</v>
       </c>
       <c r="D3" t="n">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="E3" t="n">
-        <v>274.3</v>
+        <v>1341.07249623369</v>
       </c>
       <c r="F3" t="n">
-        <v>7157.968</v>
+        <v>15635.1048865415</v>
       </c>
       <c r="G3" t="n">
-        <v>3597.56868314815</v>
+        <v>7595.95161576437</v>
       </c>
       <c r="H3" t="n">
-        <v>11931.461</v>
+        <v>42063.2827081146</v>
       </c>
       <c r="I3" t="n">
-        <v>890.27</v>
+        <v>1816.71913660624</v>
       </c>
       <c r="J3" t="n">
-        <v>68</v>
+        <v>70.2</v>
       </c>
       <c r="K3" t="n">
-        <v>144528.107296188</v>
+        <v>388961.096162815</v>
       </c>
       <c r="L3" t="n">
-        <v>3850.22</v>
+        <v>3662.8010805884</v>
       </c>
       <c r="M3" t="n">
-        <v>14723.46</v>
+        <v>47000.8786100502</v>
       </c>
       <c r="N3" t="n">
-        <v>21.2</v>
+        <v>16.8</v>
       </c>
       <c r="O3" t="n">
-        <v>155547</v>
+        <v>387043.117522622</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.199999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>22544.05</v>
+        <v>46678.920608226</v>
       </c>
       <c r="D4" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="E4" t="n">
-        <v>291.84358974359</v>
+        <v>1497.00328352691</v>
       </c>
       <c r="F4" t="n">
-        <v>7666.85815690381</v>
+        <v>16966.0427403456</v>
       </c>
       <c r="G4" t="n">
-        <v>3749.31780412371</v>
+        <v>8165.90478670359</v>
       </c>
       <c r="H4" t="n">
-        <v>12343.616</v>
+        <v>44805.2324881732</v>
       </c>
       <c r="I4" t="n">
-        <v>919.204337251723</v>
+        <v>1956.60484125539</v>
       </c>
       <c r="J4" t="n">
         <v>68.5</v>
       </c>
       <c r="K4" t="n">
-        <v>152282.659478801</v>
+        <v>411726.900552549</v>
       </c>
       <c r="L4" t="n">
-        <v>3873.86873867676</v>
+        <v>3683.28409296021</v>
       </c>
       <c r="M4" t="n">
-        <v>16465.4486686391</v>
+        <v>49762.640763068</v>
       </c>
       <c r="N4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O4" t="n">
-        <v>169577</v>
+        <v>402137.884050023</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.4</v>
+        <v>10.2</v>
       </c>
       <c r="C5" t="n">
-        <v>24922.0019827586</v>
+        <v>48652.150608226</v>
       </c>
       <c r="D5" t="n">
-        <v>2.3</v>
+        <v>5.3</v>
       </c>
       <c r="E5" t="n">
-        <v>339.08</v>
+        <v>1705.36880069118</v>
       </c>
       <c r="F5" t="n">
-        <v>8409.432671470529</v>
+        <v>17150.6453111985</v>
       </c>
       <c r="G5" t="n">
-        <v>4072.02081649485</v>
+        <v>9366.354154467201</v>
       </c>
       <c r="H5" t="n">
-        <v>15298.466</v>
+        <v>45851.8749018756</v>
       </c>
       <c r="I5" t="n">
-        <v>921.6104770243541</v>
+        <v>2164.06610520792</v>
       </c>
       <c r="J5" t="n">
-        <v>70.2</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>180587.044053596</v>
+        <v>424425.941022306</v>
       </c>
       <c r="L5" t="n">
-        <v>4220.53302015243</v>
+        <v>3953.97174740579</v>
       </c>
       <c r="M5" t="n">
-        <v>19031.5997314456</v>
+        <v>54203.4060460015</v>
       </c>
       <c r="N5" t="n">
-        <v>20.1</v>
+        <v>17.1</v>
       </c>
       <c r="O5" t="n">
-        <v>197083</v>
+        <v>416913.015607433</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.6</v>
+        <v>11.3</v>
       </c>
       <c r="C6" t="n">
-        <v>28749.31</v>
+        <v>51596.95</v>
       </c>
       <c r="D6" t="n">
-        <v>2.3</v>
+        <v>5.6</v>
       </c>
       <c r="E6" t="n">
-        <v>396.721748044876</v>
+        <v>1870.63</v>
       </c>
       <c r="F6" t="n">
-        <v>9895.85885159262</v>
+        <v>17165.29</v>
       </c>
       <c r="G6" t="n">
-        <v>4695.71732980092</v>
+        <v>9776.370000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>18067.008466</v>
+        <v>46885</v>
       </c>
       <c r="I6" t="n">
-        <v>1060.858962</v>
+        <v>2335.42</v>
       </c>
       <c r="J6" t="n">
-        <v>70.2</v>
+        <v>65.8</v>
       </c>
       <c r="K6" t="n">
-        <v>207561.289571842</v>
+        <v>413633</v>
       </c>
       <c r="L6" t="n">
-        <v>4783.47383852962</v>
+        <v>4355.47</v>
       </c>
       <c r="M6" t="n">
-        <v>21971.373311</v>
+        <v>57829.69</v>
       </c>
       <c r="N6" t="n">
-        <v>19.9</v>
+        <v>17.3</v>
       </c>
       <c r="O6" t="n">
-        <v>230281</v>
+        <v>428334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.4</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>30088.94</v>
+        <v>54788.28</v>
       </c>
       <c r="D7" t="n">
-        <v>2.4</v>
+        <v>5.8</v>
       </c>
       <c r="E7" t="n">
-        <v>466.08</v>
+        <v>1931.75</v>
       </c>
       <c r="F7" t="n">
-        <v>10974.94</v>
+        <v>17360.31</v>
       </c>
       <c r="G7" t="n">
-        <v>4854.91</v>
+        <v>11368.46</v>
       </c>
       <c r="H7" t="n">
-        <v>25106</v>
+        <v>44059</v>
       </c>
       <c r="I7" t="n">
-        <v>1076.84</v>
+        <v>2663.71</v>
       </c>
       <c r="J7" t="n">
-        <v>72.40000000000001</v>
+        <v>63.8</v>
       </c>
       <c r="K7" t="n">
-        <v>243375</v>
+        <v>399834</v>
       </c>
       <c r="L7" t="n">
-        <v>4244.16</v>
+        <v>4662.01</v>
       </c>
       <c r="M7" t="n">
-        <v>24940.32</v>
+        <v>58019.98</v>
       </c>
       <c r="N7" t="n">
-        <v>17.8</v>
+        <v>18.4</v>
       </c>
       <c r="O7" t="n">
-        <v>261369</v>
+        <v>434113</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.4</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>32245.1989894</v>
+        <v>57125.93</v>
       </c>
       <c r="D8" t="n">
-        <v>2.7</v>
+        <v>6.1</v>
       </c>
       <c r="E8" t="n">
-        <v>561.410722718288</v>
+        <v>2078.06</v>
       </c>
       <c r="F8" t="n">
-        <v>11835.4284889788</v>
+        <v>16839.04</v>
       </c>
       <c r="G8" t="n">
-        <v>5242.54556012126</v>
+        <v>11866.04</v>
       </c>
       <c r="H8" t="n">
-        <v>27892.766199</v>
+        <v>45462</v>
       </c>
       <c r="I8" t="n">
-        <v>1124.7385143</v>
+        <v>2970.71</v>
       </c>
       <c r="J8" t="n">
-        <v>72.40000000000001</v>
+        <v>62.2</v>
       </c>
       <c r="K8" t="n">
-        <v>255065.45380085</v>
+        <v>388820</v>
       </c>
       <c r="L8" t="n">
-        <v>4368.327625</v>
+        <v>4631.04</v>
       </c>
       <c r="M8" t="n">
-        <v>28587.9708534968</v>
+        <v>61205.09</v>
       </c>
       <c r="N8" t="n">
-        <v>17.5</v>
+        <v>18.7</v>
       </c>
       <c r="O8" t="n">
-        <v>286467</v>
+        <v>441492</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.5</v>
+        <v>13.6</v>
       </c>
       <c r="C9" t="n">
-        <v>34031.5956350014</v>
+        <v>59402.17</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>6.9</v>
       </c>
       <c r="E9" t="n">
-        <v>705.226662682212</v>
+        <v>2393.69</v>
       </c>
       <c r="F9" t="n">
-        <v>12496.6734822751</v>
+        <v>16916.54</v>
       </c>
       <c r="G9" t="n">
-        <v>5519.09239606569</v>
+        <v>12296.27</v>
       </c>
       <c r="H9" t="n">
-        <v>29168.12</v>
+        <v>43743</v>
       </c>
       <c r="I9" t="n">
-        <v>1243.7168508463</v>
+        <v>3326.36</v>
       </c>
       <c r="J9" t="n">
-        <v>72.5</v>
+        <v>60.6</v>
       </c>
       <c r="K9" t="n">
-        <v>272745.8771903</v>
+        <v>391403</v>
       </c>
       <c r="L9" t="n">
-        <v>4157.48720496416</v>
+        <v>4887.3</v>
       </c>
       <c r="M9" t="n">
-        <v>32711.805248</v>
+        <v>65913.97</v>
       </c>
       <c r="N9" t="n">
-        <v>17</v>
+        <v>18.9</v>
       </c>
       <c r="O9" t="n">
-        <v>311442</v>
+        <v>455827</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.4</v>
+        <v>14.5</v>
       </c>
       <c r="C10" t="n">
-        <v>35498.2393286467</v>
+        <v>63004.33</v>
       </c>
       <c r="D10" t="n">
-        <v>3.4</v>
+        <v>7.6</v>
       </c>
       <c r="E10" t="n">
-        <v>812.937593249446</v>
+        <v>2817.09</v>
       </c>
       <c r="F10" t="n">
-        <v>13532.5829883634</v>
+        <v>16409.56</v>
       </c>
       <c r="G10" t="n">
-        <v>6145.51587460373</v>
+        <v>13055.3</v>
       </c>
       <c r="H10" t="n">
-        <v>29900.2347483708</v>
+        <v>43717</v>
       </c>
       <c r="I10" t="n">
-        <v>1294.00864732</v>
+        <v>3653.51</v>
       </c>
       <c r="J10" t="n">
-        <v>71.5</v>
+        <v>59</v>
       </c>
       <c r="K10" t="n">
-        <v>281095.916334544</v>
+        <v>397452</v>
       </c>
       <c r="L10" t="n">
-        <v>3237.15365699</v>
+        <v>4536.07</v>
       </c>
       <c r="M10" t="n">
-        <v>34541.349261948</v>
+        <v>71508.2</v>
       </c>
       <c r="N10" t="n">
-        <v>16.7</v>
+        <v>18.9</v>
       </c>
       <c r="O10" t="n">
-        <v>320611</v>
+        <v>471925</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.5</v>
+        <v>15.3</v>
       </c>
       <c r="C11" t="n">
-        <v>38128.59</v>
+        <v>67268.27</v>
       </c>
       <c r="D11" t="n">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>895.2</v>
+        <v>3059.68</v>
       </c>
       <c r="F11" t="n">
-        <v>13551.43</v>
+        <v>14917.95</v>
       </c>
       <c r="G11" t="n">
-        <v>6172.69</v>
+        <v>13627.97</v>
       </c>
       <c r="H11" t="n">
-        <v>36350</v>
+        <v>46426</v>
       </c>
       <c r="I11" t="n">
-        <v>1450.49</v>
+        <v>3950.23</v>
       </c>
       <c r="J11" t="n">
-        <v>71.59999999999999</v>
+        <v>57.7</v>
       </c>
       <c r="K11" t="n">
-        <v>325003</v>
+        <v>401915</v>
       </c>
       <c r="L11" t="n">
-        <v>2828.8</v>
+        <v>4690.34</v>
       </c>
       <c r="M11" t="n">
-        <v>37032.14</v>
+        <v>74866.12</v>
       </c>
       <c r="N11" t="n">
-        <v>16.4</v>
+        <v>19</v>
       </c>
       <c r="O11" t="n">
-        <v>336126</v>
+        <v>487488</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.4</v>
+        <v>15.9</v>
       </c>
       <c r="C12" t="n">
-        <v>42874.55</v>
+        <v>69477.14</v>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>8.4</v>
       </c>
       <c r="E12" t="n">
-        <v>1080.24</v>
+        <v>3339.89</v>
       </c>
       <c r="F12" t="n">
-        <v>14699</v>
+        <v>14282.7</v>
       </c>
       <c r="G12" t="n">
-        <v>6956.2</v>
+        <v>12767.16</v>
       </c>
       <c r="H12" t="n">
-        <v>38703</v>
+        <v>48310</v>
       </c>
       <c r="I12" t="n">
-        <v>1765.17</v>
+        <v>3352.1</v>
       </c>
       <c r="J12" t="n">
-        <v>69.2</v>
+        <v>56.9</v>
       </c>
       <c r="K12" t="n">
-        <v>349008</v>
+        <v>404860</v>
       </c>
       <c r="L12" t="n">
-        <v>3758.02</v>
+        <v>5364.6</v>
       </c>
       <c r="M12" t="n">
-        <v>41934.49</v>
+        <v>77620.17</v>
       </c>
       <c r="N12" t="n">
-        <v>17.4</v>
+        <v>18.8</v>
       </c>
       <c r="O12" t="n">
-        <v>360648</v>
+        <v>498314.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="C13" t="n">
-        <v>43965.84</v>
-      </c>
+        <v>16.7</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1341.07</v>
-      </c>
-      <c r="F13" t="n">
-        <v>15635.1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>7595.95</v>
-      </c>
-      <c r="H13" t="n">
-        <v>42063</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1816.72</v>
-      </c>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>388961</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3662.8</v>
-      </c>
-      <c r="M13" t="n">
-        <v>47000.88</v>
-      </c>
+        <v>55.9</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>16.8</v>
+        <v>18.6</v>
       </c>
       <c r="O13" t="n">
-        <v>387043</v>
+        <v>525896.175896935</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="C14" t="n">
-        <v>46678.92</v>
-      </c>
+        <v>17.5</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1497</v>
-      </c>
-      <c r="F14" t="n">
-        <v>16966.04</v>
-      </c>
-      <c r="G14" t="n">
-        <v>8165.9</v>
-      </c>
-      <c r="H14" t="n">
-        <v>44805</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1956.6</v>
-      </c>
+        <v>8.4</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>411727</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3683.28</v>
-      </c>
-      <c r="M14" t="n">
-        <v>49762.64</v>
-      </c>
+        <v>56.2</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>17</v>
+        <v>17.9</v>
       </c>
       <c r="O14" t="n">
-        <v>402138</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="C15" t="n">
-        <v>48652.15</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1705.37</v>
-      </c>
-      <c r="F15" t="n">
-        <v>17150.65</v>
-      </c>
-      <c r="G15" t="n">
-        <v>9366.35</v>
-      </c>
-      <c r="H15" t="n">
-        <v>45852</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2164.07</v>
-      </c>
-      <c r="J15" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="K15" t="n">
-        <v>424426</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3953.97</v>
-      </c>
-      <c r="M15" t="n">
-        <v>54203.41</v>
-      </c>
-      <c r="N15" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="O15" t="n">
-        <v>416913</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C16" t="n">
-        <v>51596.95</v>
-      </c>
-      <c r="D16" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1870.63</v>
-      </c>
-      <c r="F16" t="n">
-        <v>17165.29</v>
-      </c>
-      <c r="G16" t="n">
-        <v>9776.370000000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>46885</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2335.42</v>
-      </c>
-      <c r="J16" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="K16" t="n">
-        <v>413633</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4355.47</v>
-      </c>
-      <c r="M16" t="n">
-        <v>57829.69</v>
-      </c>
-      <c r="N16" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="O16" t="n">
-        <v>428333.9947084</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>12</v>
-      </c>
-      <c r="C17" t="n">
-        <v>54788.28</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1931.75</v>
-      </c>
-      <c r="F17" t="n">
-        <v>17360.31</v>
-      </c>
-      <c r="G17" t="n">
-        <v>11368.46</v>
-      </c>
-      <c r="H17" t="n">
-        <v>44059</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2663.71</v>
-      </c>
-      <c r="J17" t="n">
-        <v>63.8</v>
-      </c>
-      <c r="K17" t="n">
-        <v>399834</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4662.01</v>
-      </c>
-      <c r="M17" t="n">
-        <v>58019.98</v>
-      </c>
-      <c r="N17" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="O17" t="n">
-        <v>434112.782709508</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>13</v>
-      </c>
-      <c r="C18" t="n">
-        <v>57125.93</v>
-      </c>
-      <c r="D18" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2078.06</v>
-      </c>
-      <c r="F18" t="n">
-        <v>16839.04</v>
-      </c>
-      <c r="G18" t="n">
-        <v>11866.04</v>
-      </c>
-      <c r="H18" t="n">
-        <v>45462</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2970.71</v>
-      </c>
-      <c r="J18" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>388820</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4631.04</v>
-      </c>
-      <c r="M18" t="n">
-        <v>61205.09</v>
-      </c>
-      <c r="N18" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="O18" t="n">
-        <v>441491.812454291</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="C19" t="n">
-        <v>59402.17</v>
-      </c>
-      <c r="D19" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2393.69</v>
-      </c>
-      <c r="F19" t="n">
-        <v>16916.54</v>
-      </c>
-      <c r="G19" t="n">
-        <v>12296.27</v>
-      </c>
-      <c r="H19" t="n">
-        <v>43743</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3326.36</v>
-      </c>
-      <c r="J19" t="n">
-        <v>60.6</v>
-      </c>
-      <c r="K19" t="n">
-        <v>391403</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4887.3</v>
-      </c>
-      <c r="M19" t="n">
-        <v>65913.97</v>
-      </c>
-      <c r="N19" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="O19" t="n">
-        <v>455826.918287382</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="C20" t="n">
-        <v>63004.33</v>
-      </c>
-      <c r="D20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2817.09</v>
-      </c>
-      <c r="F20" t="n">
-        <v>16409.56</v>
-      </c>
-      <c r="G20" t="n">
-        <v>13055.3</v>
-      </c>
-      <c r="H20" t="n">
-        <v>43717</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3653.51</v>
-      </c>
-      <c r="J20" t="n">
-        <v>59</v>
-      </c>
-      <c r="K20" t="n">
-        <v>397452</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4536.07</v>
-      </c>
-      <c r="M20" t="n">
-        <v>71508.2</v>
-      </c>
-      <c r="N20" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="O20" t="n">
-        <v>471925.146853218</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C21" t="n">
-        <v>67268.27</v>
-      </c>
-      <c r="D21" t="n">
-        <v>8</v>
-      </c>
-      <c r="E21" t="n">
-        <v>3059.68</v>
-      </c>
-      <c r="F21" t="n">
-        <v>14917.95</v>
-      </c>
-      <c r="G21" t="n">
-        <v>13627.97</v>
-      </c>
-      <c r="H21" t="n">
-        <v>46426</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3950.23</v>
-      </c>
-      <c r="J21" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="K21" t="n">
-        <v>401915</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4690.34</v>
-      </c>
-      <c r="M21" t="n">
-        <v>74866.12</v>
-      </c>
-      <c r="N21" t="n">
-        <v>19</v>
-      </c>
-      <c r="O21" t="n">
-        <v>487488</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="O22" t="n">
-        <v>498000</v>
+        <v>541000</v>
       </c>
     </row>
   </sheetData>
